--- a/templates/excelFile/inspection_excel.xlsx
+++ b/templates/excelFile/inspection_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Серийный № трубы</t>
   </si>
@@ -59,6 +59,105 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Класс износа</t>
+  </si>
+  <si>
+    <t>Наружный диаметр трубы, (мм)</t>
+  </si>
+  <si>
+    <t>Толщина стенки трубы, (мм)</t>
+  </si>
+  <si>
+    <t>Тип резьбы</t>
+  </si>
+  <si>
+    <t>O.D. Замка ниппель  (мм)</t>
+  </si>
+  <si>
+    <t>O.D. Замка муфта  (мм)</t>
+  </si>
+  <si>
+    <t>Длина под ключ ниппель, (мм)</t>
+  </si>
+  <si>
+    <t>Длина под ключ муфта, (мм)</t>
+  </si>
+  <si>
+    <t>Визуальный контроль состояния внутреннего покрытия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глубина наминов в зоне работы клиньев max (мм) </t>
+  </si>
+  <si>
+    <t>Изгиб ниппельного конца max (мм)</t>
+  </si>
+  <si>
+    <t>Изгиб муфтового конца max (мм)</t>
+  </si>
+  <si>
+    <t>Общий изгиб тела трубы max (мм)</t>
+  </si>
+  <si>
+    <t>МПК зоны клинев и зоны высадки</t>
+  </si>
+  <si>
+    <t>УЗК зоны клиньев и зоны высадки</t>
+  </si>
+  <si>
+    <t>EMI тела трубы (багги)</t>
+  </si>
+  <si>
+    <t>Класс тела трубы</t>
+  </si>
+  <si>
+    <t>Контроль шага резьбы ниппеля плоским шаблоном</t>
+  </si>
+  <si>
+    <t>Состояние резьбы ниппеля</t>
+  </si>
+  <si>
+    <t>Состояние упорных торцев ниппеля</t>
+  </si>
+  <si>
+    <t>МПК резьбы ниппеля</t>
+  </si>
+  <si>
+    <t>Хардбендиг ниппель (состояние)</t>
+  </si>
+  <si>
+    <t>Хардбендиг ниппель (диаметр) мм</t>
+  </si>
+  <si>
+    <t>Хардбендиг ниппель (высота наплавки) мм</t>
+  </si>
+  <si>
+    <t>Класс замка ниппель</t>
+  </si>
+  <si>
+    <t>Состояние резьбы муфты</t>
+  </si>
+  <si>
+    <t>Состояние упорных торцев муфты</t>
+  </si>
+  <si>
+    <t>МПК резьбы муфты</t>
+  </si>
+  <si>
+    <t>УЗК резьбы муфты</t>
+  </si>
+  <si>
+    <t>Хардбендиг муфта (состояние)</t>
+  </si>
+  <si>
+    <t>Хардбендиг муфта (диаметр) мм</t>
+  </si>
+  <si>
+    <t>Хардбендиг муфта (высота наплавки) мм</t>
+  </si>
+  <si>
+    <t>Класс замка муфта</t>
   </si>
 </sst>
 </file>
@@ -128,7 +227,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +249,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -209,7 +326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -217,10 +333,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,6 +347,33 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -523,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -559,8 +698,8 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -592,8 +731,8 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -625,8 +764,8 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -658,9 +797,9 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -687,92 +826,169 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:68" ht="99.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:68" ht="203" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="12"/>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>

--- a/templates/excelFile/inspection_excel.xlsx
+++ b/templates/excelFile/inspection_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Исполнитель</t>
   </si>
   <si>
-    <t>Всего единиц оборудования для маркировки</t>
-  </si>
-  <si>
     <t>Статус</t>
   </si>
   <si>
@@ -158,12 +155,15 @@
   </si>
   <si>
     <t>Класс замка муфта</t>
+  </si>
+  <si>
+    <t>Всего единиц оборудования для инспекции</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_р_._-;\-* #,##0.0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -342,38 +342,38 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -698,8 +698,8 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -731,8 +731,8 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -762,7 +762,7 @@
     </row>
     <row r="3" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
@@ -795,10 +795,10 @@
     </row>
     <row r="4" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -840,155 +840,155 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="R5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="S5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="T5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="U5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="V5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="X5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="Y5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AB5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AC5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AD5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AE5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AF5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AH5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="18" t="s">
+      <c r="AI5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AI5" s="18" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AJ5" s="18" t="s">
+      <c r="AK5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" s="18" t="s">
+      <c r="AL5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AL5" s="18" t="s">
+      <c r="AM5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" s="18" t="s">
+      <c r="AN5" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="AN5" s="18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>

--- a/templates/excelFile/inspection_excel.xlsx
+++ b/templates/excelFile/inspection_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="375" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>Класс замка муфта</t>
   </si>
   <si>
-    <t>Всего единиц оборудования для инспекции</t>
+    <t>Всего единиц оборудования на инспекцию</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
